--- a/Model/BayesLSTM/Multivariate/result/Service/BRA.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Service/BRA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>62.28646087646484</v>
+        <v>58.83527374267578</v>
       </c>
       <c r="C2" t="n">
-        <v>59.31294250488281</v>
+        <v>52.05670547485352</v>
       </c>
       <c r="D2" t="n">
-        <v>65.25997924804688</v>
+        <v>65.61383819580078</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>59.81765747070312</v>
+        <v>57.83766555786133</v>
       </c>
       <c r="C3" t="n">
-        <v>53.72711181640625</v>
+        <v>49.10119247436523</v>
       </c>
       <c r="D3" t="n">
-        <v>65.908203125</v>
+        <v>66.57413482666016</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>58.28511428833008</v>
+        <v>58.15142059326172</v>
       </c>
       <c r="C4" t="n">
-        <v>54.19010543823242</v>
+        <v>52.21333312988281</v>
       </c>
       <c r="D4" t="n">
-        <v>62.38012313842773</v>
+        <v>64.08950805664062</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>59.45462036132812</v>
+        <v>57.40983200073242</v>
       </c>
       <c r="C5" t="n">
-        <v>56.86317443847656</v>
+        <v>50.22684097290039</v>
       </c>
       <c r="D5" t="n">
-        <v>62.04606628417969</v>
+        <v>64.59282684326172</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>59.04600143432617</v>
+        <v>57.70159912109375</v>
       </c>
       <c r="C6" t="n">
-        <v>53.3282585144043</v>
+        <v>53.78164672851562</v>
       </c>
       <c r="D6" t="n">
-        <v>64.76374053955078</v>
+        <v>61.62155151367188</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>60.02669525146484</v>
+        <v>57.10429000854492</v>
       </c>
       <c r="C7" t="n">
-        <v>58.00183486938477</v>
+        <v>51.01800155639648</v>
       </c>
       <c r="D7" t="n">
-        <v>62.05155563354492</v>
+        <v>63.19057846069336</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>57.91843414306641</v>
+        <v>56.76078033447266</v>
       </c>
       <c r="C8" t="n">
-        <v>51.22298049926758</v>
+        <v>50.17710876464844</v>
       </c>
       <c r="D8" t="n">
-        <v>64.6138916015625</v>
+        <v>63.34445190429688</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>59.61285400390625</v>
+        <v>56.95441818237305</v>
       </c>
       <c r="C9" t="n">
-        <v>55.0677490234375</v>
+        <v>49.05677032470703</v>
       </c>
       <c r="D9" t="n">
-        <v>64.157958984375</v>
+        <v>64.85206604003906</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>57.85869216918945</v>
+        <v>57.84900665283203</v>
       </c>
       <c r="C10" t="n">
-        <v>52.36601638793945</v>
+        <v>52.12197875976562</v>
       </c>
       <c r="D10" t="n">
-        <v>63.35136795043945</v>
+        <v>63.57603454589844</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>58.1662712097168</v>
+        <v>57.5903205871582</v>
       </c>
       <c r="C11" t="n">
-        <v>52.34804153442383</v>
+        <v>51.57863235473633</v>
       </c>
       <c r="D11" t="n">
-        <v>63.98450088500977</v>
+        <v>63.60200881958008</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>57.82009887695312</v>
+        <v>57.0654411315918</v>
       </c>
       <c r="C12" t="n">
-        <v>51.39595413208008</v>
+        <v>51.16232299804688</v>
       </c>
       <c r="D12" t="n">
-        <v>64.24423980712891</v>
+        <v>62.96855926513672</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>60.1401252746582</v>
+        <v>55.53507232666016</v>
       </c>
       <c r="C13" t="n">
-        <v>55.79837417602539</v>
+        <v>49.80992126464844</v>
       </c>
       <c r="D13" t="n">
-        <v>64.48187255859375</v>
+        <v>61.26022338867188</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>60.5328369140625</v>
+        <v>59.21392059326172</v>
       </c>
       <c r="C14" t="n">
-        <v>55.30763244628906</v>
+        <v>53.37267303466797</v>
       </c>
       <c r="D14" t="n">
-        <v>65.75804138183594</v>
+        <v>65.05516815185547</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>59.25261688232422</v>
+        <v>59.32230758666992</v>
       </c>
       <c r="C15" t="n">
-        <v>55.10943603515625</v>
+        <v>54.13699340820312</v>
       </c>
       <c r="D15" t="n">
-        <v>63.39579772949219</v>
+        <v>64.50762176513672</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>58.67520904541016</v>
+        <v>58.46621704101562</v>
       </c>
       <c r="C16" t="n">
-        <v>53.81756210327148</v>
+        <v>53.41422653198242</v>
       </c>
       <c r="D16" t="n">
-        <v>63.53285598754883</v>
+        <v>63.51820755004883</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>60.19423675537109</v>
+        <v>56.23843383789062</v>
       </c>
       <c r="C17" t="n">
-        <v>54.46496963500977</v>
+        <v>51.384033203125</v>
       </c>
       <c r="D17" t="n">
-        <v>65.92350006103516</v>
+        <v>61.09283447265625</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>58.88645553588867</v>
+        <v>56.97290802001953</v>
       </c>
       <c r="C18" t="n">
-        <v>53.29868698120117</v>
+        <v>51.14643859863281</v>
       </c>
       <c r="D18" t="n">
-        <v>64.47422790527344</v>
+        <v>62.79937744140625</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>59.53749465942383</v>
+        <v>57.606201171875</v>
       </c>
       <c r="C19" t="n">
-        <v>55.06748962402344</v>
+        <v>52.2508430480957</v>
       </c>
       <c r="D19" t="n">
-        <v>64.00749969482422</v>
+        <v>62.9615592956543</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>59.18251800537109</v>
+        <v>57.08110427856445</v>
       </c>
       <c r="C20" t="n">
-        <v>55.06777954101562</v>
+        <v>50.74365997314453</v>
       </c>
       <c r="D20" t="n">
-        <v>63.29725646972656</v>
+        <v>63.41854858398438</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>58.08737945556641</v>
+        <v>56.4090461730957</v>
       </c>
       <c r="C21" t="n">
-        <v>54.00951385498047</v>
+        <v>49.224365234375</v>
       </c>
       <c r="D21" t="n">
-        <v>62.16524505615234</v>
+        <v>63.59372711181641</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>60.16044998168945</v>
+        <v>56.88765335083008</v>
       </c>
       <c r="C22" t="n">
-        <v>54.8569221496582</v>
+        <v>50.04190826416016</v>
       </c>
       <c r="D22" t="n">
-        <v>65.46397399902344</v>
+        <v>63.7333984375</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>59.05275344848633</v>
+        <v>56.99159622192383</v>
       </c>
       <c r="C23" t="n">
-        <v>54.74590682983398</v>
+        <v>51.50070571899414</v>
       </c>
       <c r="D23" t="n">
-        <v>63.35960006713867</v>
+        <v>62.48248672485352</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>59.919921875</v>
+        <v>58.12172317504883</v>
       </c>
       <c r="C24" t="n">
-        <v>54.12686157226562</v>
+        <v>51.08747482299805</v>
       </c>
       <c r="D24" t="n">
-        <v>65.71298217773438</v>
+        <v>65.15597534179688</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>59.368896484375</v>
+        <v>56.75902557373047</v>
       </c>
       <c r="C25" t="n">
-        <v>55.21899032592773</v>
+        <v>50.61759185791016</v>
       </c>
       <c r="D25" t="n">
-        <v>63.51880264282227</v>
+        <v>62.90045928955078</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>59.58251190185547</v>
+        <v>57.03214263916016</v>
       </c>
       <c r="C26" t="n">
-        <v>54.36832427978516</v>
+        <v>52.18921661376953</v>
       </c>
       <c r="D26" t="n">
-        <v>64.79669952392578</v>
+        <v>61.87506866455078</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>58.98122406005859</v>
+        <v>57.00675201416016</v>
       </c>
       <c r="C27" t="n">
-        <v>54.4459228515625</v>
+        <v>51.82059097290039</v>
       </c>
       <c r="D27" t="n">
-        <v>63.51652526855469</v>
+        <v>62.19291305541992</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>59.3906135559082</v>
+        <v>56.83417510986328</v>
       </c>
       <c r="C28" t="n">
-        <v>54.65414428710938</v>
+        <v>49.99587631225586</v>
       </c>
       <c r="D28" t="n">
-        <v>64.12708282470703</v>
+        <v>63.6724739074707</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>60.19875335693359</v>
+        <v>56.59947967529297</v>
       </c>
       <c r="C29" t="n">
-        <v>54.82617950439453</v>
+        <v>51.64674758911133</v>
       </c>
       <c r="D29" t="n">
-        <v>65.57132720947266</v>
+        <v>61.55221176147461</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>58.26560211181641</v>
+        <v>56.85680389404297</v>
       </c>
       <c r="C30" t="n">
-        <v>54.05325317382812</v>
+        <v>50.08925628662109</v>
       </c>
       <c r="D30" t="n">
-        <v>62.47795104980469</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>57.49333953857422</v>
-      </c>
-      <c r="C31" t="n">
-        <v>52.68101501464844</v>
-      </c>
-      <c r="D31" t="n">
-        <v>62.3056640625</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>59.29846954345703</v>
-      </c>
-      <c r="C32" t="n">
-        <v>54.29186630249023</v>
-      </c>
-      <c r="D32" t="n">
-        <v>64.30506896972656</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>58.59566116333008</v>
-      </c>
-      <c r="C33" t="n">
-        <v>52.49164199829102</v>
-      </c>
-      <c r="D33" t="n">
-        <v>64.69967651367188</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>58.70613479614258</v>
-      </c>
-      <c r="C34" t="n">
-        <v>54.43680953979492</v>
-      </c>
-      <c r="D34" t="n">
-        <v>62.97546005249023</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>59.81329345703125</v>
-      </c>
-      <c r="C35" t="n">
-        <v>55.48674392700195</v>
-      </c>
-      <c r="D35" t="n">
-        <v>64.13983917236328</v>
+        <v>63.62435150146484</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>56.85143585205078</v>
+        <v>57.77363967895508</v>
       </c>
       <c r="C2" t="n">
-        <v>53.67209683682863</v>
+        <v>50.19106674194336</v>
       </c>
       <c r="D2" t="n">
-        <v>60.03077486727294</v>
+        <v>65.35621643066406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>56.96886749267578</v>
+        <v>57.67191696166992</v>
       </c>
       <c r="C3" t="n">
-        <v>54.14277894444322</v>
+        <v>49.88877868652344</v>
       </c>
       <c r="D3" t="n">
-        <v>59.79495604090835</v>
+        <v>65.45505523681641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>56.89975929260254</v>
+        <v>56.90311431884766</v>
       </c>
       <c r="C4" t="n">
-        <v>50.31630576565473</v>
+        <v>51.27001571655273</v>
       </c>
       <c r="D4" t="n">
-        <v>63.48321281955035</v>
+        <v>62.53621292114258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>60.34727020263672</v>
+        <v>57.1163444519043</v>
       </c>
       <c r="C5" t="n">
-        <v>53.85022011605538</v>
+        <v>51.00227355957031</v>
       </c>
       <c r="D5" t="n">
-        <v>66.84432028921808</v>
+        <v>63.23041534423828</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>62.12002258300781</v>
+        <v>56.58915328979492</v>
       </c>
       <c r="C6" t="n">
-        <v>55.99461483180477</v>
+        <v>50.31048965454102</v>
       </c>
       <c r="D6" t="n">
-        <v>68.24543033421085</v>
+        <v>62.86781692504883</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>54.659423828125</v>
+        <v>59.42283248901367</v>
       </c>
       <c r="C2" t="n">
-        <v>50.46597290039062</v>
+        <v>52.36134338378906</v>
       </c>
       <c r="D2" t="n">
-        <v>58.85287475585938</v>
+        <v>66.48432159423828</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>53.09685516357422</v>
+        <v>58.89033889770508</v>
       </c>
       <c r="C3" t="n">
-        <v>48.79709625244141</v>
+        <v>50.92454528808594</v>
       </c>
       <c r="D3" t="n">
-        <v>57.39661407470703</v>
+        <v>66.85613250732422</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>53.90910720825195</v>
+        <v>59.10699462890625</v>
       </c>
       <c r="C4" t="n">
-        <v>47.47802352905273</v>
+        <v>52.36849594116211</v>
       </c>
       <c r="D4" t="n">
-        <v>60.34019088745117</v>
+        <v>65.84548950195312</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>54.89200592041016</v>
+        <v>57.97644805908203</v>
       </c>
       <c r="C5" t="n">
-        <v>50.0169677734375</v>
+        <v>51.72220993041992</v>
       </c>
       <c r="D5" t="n">
-        <v>59.76704406738281</v>
+        <v>64.23068237304688</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>54.62394332885742</v>
+        <v>57.04374313354492</v>
       </c>
       <c r="C6" t="n">
-        <v>49.24374389648438</v>
+        <v>51.45033264160156</v>
       </c>
       <c r="D6" t="n">
-        <v>60.00414276123047</v>
+        <v>62.63715362548828</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>54.2473258972168</v>
+        <v>57.34525299072266</v>
       </c>
       <c r="C7" t="n">
-        <v>47.6826171875</v>
+        <v>50.93745040893555</v>
       </c>
       <c r="D7" t="n">
-        <v>60.81203460693359</v>
+        <v>63.75305557250977</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>53.49227905273438</v>
+        <v>59.82612228393555</v>
       </c>
       <c r="C8" t="n">
-        <v>48.77504348754883</v>
+        <v>51.90514373779297</v>
       </c>
       <c r="D8" t="n">
-        <v>58.20951461791992</v>
+        <v>67.74710083007812</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>53.5477409362793</v>
+        <v>59.9607048034668</v>
       </c>
       <c r="C9" t="n">
-        <v>48.41178131103516</v>
+        <v>55.32773208618164</v>
       </c>
       <c r="D9" t="n">
-        <v>58.68370056152344</v>
+        <v>64.59368133544922</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>54.20449066162109</v>
+        <v>58.3945198059082</v>
       </c>
       <c r="C10" t="n">
-        <v>46.58423614501953</v>
+        <v>51.72477340698242</v>
       </c>
       <c r="D10" t="n">
-        <v>61.82474517822266</v>
+        <v>65.06426239013672</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>54.28074264526367</v>
+        <v>58.95433807373047</v>
       </c>
       <c r="C11" t="n">
-        <v>48.56100845336914</v>
+        <v>53.00354766845703</v>
       </c>
       <c r="D11" t="n">
-        <v>60.0004768371582</v>
+        <v>64.90512847900391</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>53.76279830932617</v>
+        <v>59.4700813293457</v>
       </c>
       <c r="C12" t="n">
-        <v>47.32211685180664</v>
+        <v>55.16614532470703</v>
       </c>
       <c r="D12" t="n">
-        <v>60.2034797668457</v>
+        <v>63.77401733398438</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>54.3045539855957</v>
+        <v>58.21567916870117</v>
       </c>
       <c r="C13" t="n">
-        <v>48.00210571289062</v>
+        <v>50.30611801147461</v>
       </c>
       <c r="D13" t="n">
-        <v>60.60700225830078</v>
+        <v>66.125244140625</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>52.99686431884766</v>
+        <v>59.25409698486328</v>
       </c>
       <c r="C14" t="n">
-        <v>48.50896453857422</v>
+        <v>51.93027114868164</v>
       </c>
       <c r="D14" t="n">
-        <v>57.48476409912109</v>
+        <v>66.57791900634766</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>52.85507965087891</v>
+        <v>59.74202346801758</v>
       </c>
       <c r="C15" t="n">
-        <v>45.31495666503906</v>
+        <v>53.64896011352539</v>
       </c>
       <c r="D15" t="n">
-        <v>60.39520263671875</v>
+        <v>65.8350830078125</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>54.04296112060547</v>
+        <v>58.72587966918945</v>
       </c>
       <c r="C16" t="n">
-        <v>49.6889533996582</v>
+        <v>51.12213897705078</v>
       </c>
       <c r="D16" t="n">
-        <v>58.39696884155273</v>
+        <v>66.32962036132812</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>52.81417083740234</v>
+        <v>58.29503631591797</v>
       </c>
       <c r="C17" t="n">
-        <v>48.32975006103516</v>
+        <v>52.35001754760742</v>
       </c>
       <c r="D17" t="n">
-        <v>57.29859161376953</v>
+        <v>64.24005889892578</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>52.68959426879883</v>
+        <v>59.10274124145508</v>
       </c>
       <c r="C18" t="n">
-        <v>48.4986686706543</v>
+        <v>52.56824111938477</v>
       </c>
       <c r="D18" t="n">
-        <v>56.88051986694336</v>
+        <v>65.63723754882812</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>53.11819458007812</v>
+        <v>58.72987747192383</v>
       </c>
       <c r="C19" t="n">
-        <v>47.35737228393555</v>
+        <v>53.81995391845703</v>
       </c>
       <c r="D19" t="n">
-        <v>58.8790168762207</v>
+        <v>63.63980102539062</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>52.49127197265625</v>
+        <v>58.9895133972168</v>
       </c>
       <c r="C20" t="n">
-        <v>48.66958618164062</v>
+        <v>51.33262252807617</v>
       </c>
       <c r="D20" t="n">
-        <v>56.31295776367188</v>
+        <v>66.64640808105469</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>51.9376220703125</v>
+        <v>57.60466766357422</v>
       </c>
       <c r="C21" t="n">
-        <v>45.54659271240234</v>
+        <v>53.44405364990234</v>
       </c>
       <c r="D21" t="n">
-        <v>58.32865142822266</v>
+        <v>61.76528167724609</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>53.9300537109375</v>
+        <v>58.45821380615234</v>
       </c>
       <c r="C22" t="n">
-        <v>48.36547470092773</v>
+        <v>51.0400276184082</v>
       </c>
       <c r="D22" t="n">
-        <v>59.49463272094727</v>
+        <v>65.87639617919922</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>52.92373657226562</v>
+        <v>58.90555572509766</v>
       </c>
       <c r="C23" t="n">
-        <v>48.90308380126953</v>
+        <v>51.38580322265625</v>
       </c>
       <c r="D23" t="n">
-        <v>56.94438934326172</v>
+        <v>66.42530822753906</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>53.25770950317383</v>
+        <v>58.81459808349609</v>
       </c>
       <c r="C24" t="n">
-        <v>47.59638977050781</v>
+        <v>51.47996520996094</v>
       </c>
       <c r="D24" t="n">
-        <v>58.91902923583984</v>
+        <v>66.14923095703125</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>54.35513305664062</v>
+        <v>59.66619110107422</v>
       </c>
       <c r="C25" t="n">
-        <v>48.67581939697266</v>
+        <v>54.59585952758789</v>
       </c>
       <c r="D25" t="n">
-        <v>60.03444671630859</v>
+        <v>64.73651885986328</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>55.19132614135742</v>
+        <v>60.01981353759766</v>
       </c>
       <c r="C26" t="n">
-        <v>49.11723709106445</v>
+        <v>56.65812683105469</v>
       </c>
       <c r="D26" t="n">
-        <v>61.26541519165039</v>
+        <v>63.38150024414062</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>53.42981719970703</v>
+        <v>58.11322021484375</v>
       </c>
       <c r="C27" t="n">
-        <v>48.91422653198242</v>
+        <v>53.48439407348633</v>
       </c>
       <c r="D27" t="n">
-        <v>57.94540786743164</v>
+        <v>62.74204635620117</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>53.45384979248047</v>
+        <v>57.56732177734375</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42424774169922</v>
+        <v>48.95962905883789</v>
       </c>
       <c r="D28" t="n">
-        <v>59.48345184326172</v>
+        <v>66.17501831054688</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>53.21542358398438</v>
+        <v>59.76896286010742</v>
       </c>
       <c r="C29" t="n">
-        <v>46.2322883605957</v>
+        <v>52.57442474365234</v>
       </c>
       <c r="D29" t="n">
-        <v>60.19855880737305</v>
+        <v>66.9635009765625</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>52.264404296875</v>
+        <v>57.5667839050293</v>
       </c>
       <c r="C30" t="n">
-        <v>48.46622467041016</v>
+        <v>51.89914321899414</v>
       </c>
       <c r="D30" t="n">
-        <v>56.06258392333984</v>
+        <v>63.23442459106445</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>51.70907592773438</v>
+        <v>59.13408660888672</v>
       </c>
       <c r="C31" t="n">
-        <v>48.00588607788086</v>
+        <v>53.19528198242188</v>
       </c>
       <c r="D31" t="n">
-        <v>55.41226577758789</v>
+        <v>65.07289123535156</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>53.40543746948242</v>
+        <v>59.3859977722168</v>
       </c>
       <c r="C32" t="n">
-        <v>46.11045837402344</v>
+        <v>49.9261589050293</v>
       </c>
       <c r="D32" t="n">
-        <v>60.70041656494141</v>
+        <v>68.84584045410156</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>52.25893402099609</v>
+        <v>55.92086791992188</v>
       </c>
       <c r="C33" t="n">
-        <v>45.95777893066406</v>
+        <v>50.23834609985352</v>
       </c>
       <c r="D33" t="n">
-        <v>58.56008911132812</v>
+        <v>61.60338973999023</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>51.64302444458008</v>
+        <v>59.33787155151367</v>
       </c>
       <c r="C34" t="n">
-        <v>47.55828475952148</v>
+        <v>52.22225952148438</v>
       </c>
       <c r="D34" t="n">
-        <v>55.72776412963867</v>
+        <v>66.45348358154297</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>51.27969360351562</v>
+        <v>59.45808792114258</v>
       </c>
       <c r="C35" t="n">
-        <v>47.41025924682617</v>
+        <v>53.04312896728516</v>
       </c>
       <c r="D35" t="n">
-        <v>55.14912796020508</v>
+        <v>65.873046875</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>58.53474922180176</v>
+        <v>58.48878479003906</v>
       </c>
       <c r="C2" t="n">
-        <v>53.74420245795127</v>
+        <v>51.70214496695138</v>
       </c>
       <c r="D2" t="n">
-        <v>63.32529598565225</v>
+        <v>65.27542461312675</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>58.98322372436523</v>
+        <v>55.71845664978027</v>
       </c>
       <c r="C3" t="n">
-        <v>55.44133265999646</v>
+        <v>52.45251509084243</v>
       </c>
       <c r="D3" t="n">
-        <v>62.525114788734</v>
+        <v>58.98439820871811</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>58.50881195068359</v>
+        <v>57.0179256439209</v>
       </c>
       <c r="C4" t="n">
-        <v>54.4642206697507</v>
+        <v>53.87476060963117</v>
       </c>
       <c r="D4" t="n">
-        <v>62.55340323161649</v>
+        <v>60.16109067821063</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>52.97008666992188</v>
+        <v>63.02955703735351</v>
       </c>
       <c r="C5" t="n">
-        <v>47.7256761460466</v>
+        <v>57.66250289749491</v>
       </c>
       <c r="D5" t="n">
-        <v>58.21449719379715</v>
+        <v>68.39661117721212</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>53.96795272827148</v>
+        <v>58.99076766967774</v>
       </c>
       <c r="C6" t="n">
-        <v>49.56281860186437</v>
+        <v>52.03419711620485</v>
       </c>
       <c r="D6" t="n">
-        <v>58.3730868546786</v>
+        <v>65.94733822315062</v>
       </c>
     </row>
   </sheetData>
